--- a/Documentação/Backlog Projeto Individual.xlsx
+++ b/Documentação/Backlog Projeto Individual.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2852CB4E-3EC2-4738-BC72-19D926565D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paesl\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD48E5A3-0735-4F47-8B1A-69D3EB77763F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -15,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Requisito</t>
   </si>
@@ -88,13 +82,34 @@
   </si>
   <si>
     <t>5.3 Tela de Multiplicação</t>
+  </si>
+  <si>
+    <t>5.4 Tela de Divisão</t>
+  </si>
+  <si>
+    <t>5.6 Tela de Ordem de Operações</t>
+  </si>
+  <si>
+    <t>5.7 Tela de Números Reais</t>
+  </si>
+  <si>
+    <t>5.8 Tela de Frações e Números decimais</t>
+  </si>
+  <si>
+    <t>5.9 Tela de Potenciação</t>
+  </si>
+  <si>
+    <t>5.10 Tela de Porcentagem</t>
+  </si>
+  <si>
+    <t>5.11 Tela de Regra de Três</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,16 +716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2971800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1400175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -735,8 +751,536 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="19945350"/>
+          <a:off x="1952625" y="18173700"/>
           <a:ext cx="3038475" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0569BBF4-F406-16F8-2593-F38CD20BEFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943101" y="19810070"/>
+          <a:ext cx="3009899" cy="1316380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1330532</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1343025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2996935</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62306628-642B-A579-511C-A559FE945874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1940132" y="21135975"/>
+          <a:ext cx="3009428" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2986743</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1962150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2FDE16-13E5-6A8E-030A-6427A3B1A875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943101" y="22259927"/>
+          <a:ext cx="2996267" cy="1952623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1952625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12871</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3038475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFB3E78-0F8A-083B-76A9-384AC701DD25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943099" y="24203025"/>
+          <a:ext cx="3022772" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1343024</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3000374</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1061F3AB-F501-C9F8-EE70-91C04AD051B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952624" y="25307925"/>
+          <a:ext cx="3000375" cy="2066924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1334392</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2133600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04937998-FAF1-9170-216A-43A54C0071D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943992" y="27374851"/>
+          <a:ext cx="3009008" cy="2124074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5736</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2133601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27527</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3971925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F67FA0-D442-A836-9396-F73A454D31EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958361" y="29498926"/>
+          <a:ext cx="3022166" cy="1838324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11566</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2096673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4158BBC3-8CAF-111C-318A-D4B3541667FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1964191" y="31365827"/>
+          <a:ext cx="2988809" cy="2087146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25345</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2105027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4048125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2528F6-F1BF-7ABF-868E-ACA1E61ACFFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1977970" y="33461327"/>
+          <a:ext cx="2994080" cy="1943098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11195</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3F3A30-AD6E-92C6-10F7-127BB0B8FDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1963820" y="35433002"/>
+          <a:ext cx="2979655" cy="2105243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10671</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2105026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2990851</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1277899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF23DE0-3123-FB45-AC9A-B1EF56ACEBFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1963296" y="37528501"/>
+          <a:ext cx="2980180" cy="1287423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1341240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1295401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2952751</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2437680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88834FA-C39E-E70B-E5FD-3FDF6DAADE45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1950840" y="38833426"/>
+          <a:ext cx="2954536" cy="1142279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,13 +1609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -1079,7 +1623,7 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="43.5">
+    <row r="3" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="42" customHeight="1">
+    <row r="4" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="67.5" customHeight="1">
+    <row r="5" spans="2:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="103.5" customHeight="1">
+    <row r="6" spans="2:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="165" customHeight="1">
+    <row r="7" spans="2:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="163.5" customHeight="1">
+    <row r="8" spans="2:5" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1162,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="165" customHeight="1">
+    <row r="9" spans="2:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="162.75" customHeight="1">
+    <row r="10" spans="2:5" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="164.25" customHeight="1">
+    <row r="11" spans="2:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1195,14 +1739,103 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="193.5" customHeight="1">
+    <row r="12" spans="2:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" ht="241.5" customHeight="1">
+    <row r="13" spans="2:5" ht="237.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="320.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Backlog Projeto Individual.xlsx
+++ b/Documentação/Backlog Projeto Individual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paesl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paesl\sptech\GitHub\Projeto-Pessoal\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD48E5A3-0735-4F47-8B1A-69D3EB77763F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2835FC9-D4CA-4993-870A-8F03DF0BE9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>Requisito</t>
   </si>
@@ -103,13 +103,16 @@
   </si>
   <si>
     <t>5.11 Tela de Regra de Três</t>
+  </si>
+  <si>
+    <t>6.0 Dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -180,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,6 +1292,50 @@
         <a:xfrm>
           <a:off x="1950840" y="38833426"/>
           <a:ext cx="2954536" cy="1142279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1337612</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2992079</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2076450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A1CDA2-9DD0-30E6-FCA2-382CB70345DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1947212" y="39976426"/>
+          <a:ext cx="2997492" cy="2076449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,12 +1886,26 @@
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="21" spans="2:5" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
